--- a/biology/Biochimie/Acide_glutaconique/Acide_glutaconique.xlsx
+++ b/biology/Biochimie/Acide_glutaconique/Acide_glutaconique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide glutaconique est un composé chimique de formule HOOC–CH2–CH=CH–COOH. C'est un acide dicarboxylique à cinq atomes de carbone présentant une double liaison et donc deux diastéréoisomères cis et trans, soit respectivement les configurations Z et E.
 L'acide glutaconique est structurellement proche de l'acide glutarique HOOC–CH2–CH2–CH2–COOH, qui en est l'équivalent saturé.
-L'acide cis-glutaconique a une température de fusion de 130-132 °C, sensiblement inférieure à celle de l'isomère trans. On peut le produire par bromation de l'acide lévulinique HOOC–CH2–CH2–CO–CH3 suivie d'un traitement de la dibromocétone par le carbonate de calcium CaCO3[2].
-La forme trans est biologiquement active, sa forme activée étant la glutaconyl-CoA. Elle est métaboliquement liée à l'acide glutarique et à l'acide 3-hydroxyglutarique. Son accumulation dans l'acidurie glutarique de type 1 provoque des lésions principalement cérébrales[3].
-L'anhydride glutaconique, résultant de la déshydratation des carboxyles, existe en solution essentiellement sous forme du tautomère dicarbonyle. Il s'agit d'un solide incolore fondant à 77-82 °C. Il peut être produit à partir aussi bien de la forme cis que de la forme trans de l'acide glutaconique, cette dernière s'isomérisant dans les conditions de la réaction[4].
+L'acide cis-glutaconique a une température de fusion de 130-132 °C, sensiblement inférieure à celle de l'isomère trans. On peut le produire par bromation de l'acide lévulinique HOOC–CH2–CH2–CO–CH3 suivie d'un traitement de la dibromocétone par le carbonate de calcium CaCO3.
+La forme trans est biologiquement active, sa forme activée étant la glutaconyl-CoA. Elle est métaboliquement liée à l'acide glutarique et à l'acide 3-hydroxyglutarique. Son accumulation dans l'acidurie glutarique de type 1 provoque des lésions principalement cérébrales.
+L'anhydride glutaconique, résultant de la déshydratation des carboxyles, existe en solution essentiellement sous forme du tautomère dicarbonyle. Il s'agit d'un solide incolore fondant à 77-82 °C. Il peut être produit à partir aussi bien de la forme cis que de la forme trans de l'acide glutaconique, cette dernière s'isomérisant dans les conditions de la réaction.
 </t>
         </is>
       </c>
